--- a/biology/Botanique/Duhomard/Duhomard.xlsx
+++ b/biology/Botanique/Duhomard/Duhomard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Duhomard est une marque de vermouth aromatisé essentiellement au quinquina, qui se décline en rouge et blanc. Elle a été créée par le voyageur de commerce français Émile Diacre.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout commence avec le banquet de Massais le 24 juillet 1922 et son concours de pêche qui se déroulent sur les bords de l’Argenton, chaque année. Auguste Lebouc réunit les voyageurs de commerce des environs qui se donnent rendez-vous dans ce petit village. Cette année-là, des amis d'Émile Diacre, originaire de Thouars, lui concoctent une plaisanterie. Après un repas bien arrosé, il s’endort et ses amis en profitent pour lui accrocher au bout de sa ligne un homard cuit. Lors de son réveil, il est surpris de trouver ce drôle d’animal qui ne vit pas dans les eaux de la région. À la suite de cette plaisanterie, il revient quelques années plus tard avec un apéritif qu’il a nommé « Duhomard » en hommage à cette curieuse prise.
-Depuis le 1er juillet 2011, Les Jardins de l’Orbrie, entreprise fondée en 2001 par Alain Péridy, arboriculteur spécialisé dans le domaine de la pomme et Jacky Collet, consultant, chef de vente et formateur commercial, reprennent la marque et la commercialisent à Bressuire[1],[2].
+Depuis le 1er juillet 2011, Les Jardins de l’Orbrie, entreprise fondée en 2001 par Alain Péridy, arboriculteur spécialisé dans le domaine de la pomme et Jacky Collet, consultant, chef de vente et formateur commercial, reprennent la marque et la commercialisent à Bressuire,.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rouge : L’apéritif Duhomard rouge est élaboré à base de vin et d’arômes naturels de gentiane, d’écorces d’oranges douces et amères.
 Blanc : L’apéritif Duhomard blanc est préparé à partir d’arômes naturels d’orange, de quinquina, de cacao et de gentiane.
-Cerise : L’apéritif Duhomard cerise a été élaboré à partir de vin et d’arômes naturels de cerise[3].
+Cerise : L’apéritif Duhomard cerise a été élaboré à partir de vin et d’arômes naturels de cerise.
 Depuis l’été 2019, deux nouvelles boissons effervescentes sont commercialisées :
 le Spritz bio by Duhomard, prêt à déguster ;
 le Limé bio by Duhomard, remise au goût du jour d’une ancienne recette des bals, fêtes de famille et apéritifs associatifs de l’ouest de la France. Il se compose d’une base de vin blanc et de limonade.</t>
@@ -579,7 +595,9 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque « Duhomard » apparaît en 1926 ; les premières affiches à destination des débitants de boissons sont créées par A. Roland de Saumur avec pour inscription « Quinquina Duhomard » et dans le coin gauche un bouc qui fume.
 </t>
